--- a/data/cat_groupings.xlsx
+++ b/data/cat_groupings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gaia.pasteur.fr\@home\Ctcmodeler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qleclerc\Documents\R\ctcmodeler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27406BD-F85F-4305-AEAB-2361C0F01BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CFD77B-D4D7-4623-AFD6-BA072B193D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{D1C29BD6-CA7A-431F-9929-32C71309BE70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{D1C29BD6-CA7A-431F-9929-32C71309BE70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>PVS</t>
   </si>
   <si>
-    <t>Geriatry</t>
-  </si>
-  <si>
     <t>Neurology</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Care assistants</t>
+  </si>
+  <si>
+    <t>Elderly care</t>
   </si>
 </sst>
 </file>
@@ -190,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +230,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,12 +489,12 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -516,18 +516,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -535,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -593,7 +593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -615,7 +615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -648,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -659,7 +659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -667,10 +667,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -678,10 +678,10 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -692,7 +692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -700,10 +700,10 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -711,7 +711,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
